--- a/src/data/testing_dataset.xlsx
+++ b/src/data/testing_dataset.xlsx
@@ -1,125 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andromeda\Desktop\GitHub\LLM-based-QA-chatbot-builder\src\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9926D8FF-D965-48A6-9142-AAB537102707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-23415" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>What are the requirements for postgraduate programs at KUET?</t>
-  </si>
-  <si>
-    <t>Applicants for master's programs need a B.Sc. Eng degree or equivalent in the relevant field, with good academic records. Admissions include written and/or viva-voce tests.</t>
-  </si>
-  <si>
-    <t>How are earned credits and CGPA improvement handled at KUET?</t>
-  </si>
-  <si>
-    <t>Courses with a 'D' grade or higher are counted as earned credits. 'F' grades are not counted for GPA but remain on transcripts. Students can repeat a course for improvement but can't earn above a 'B' grade.</t>
-  </si>
-  <si>
-    <t>What are the provisions for completing backlog courses at KUET?</t>
-  </si>
-  <si>
-    <t>Backlog exams are held once a year. Students can register for a maximum of 12 credits among all previous term's backlog courses.</t>
-  </si>
-  <si>
-    <t>Can you provide a brief historical background of KUET?</t>
-  </si>
-  <si>
-    <t>KUET, Bangladesh was established in 1967 as Khulna Engineering College. It began its journey on 3 June 1974 following directions from Bangabandhu Sheikh Mujibur Rahman. It became an autonomous institute named Bangladesh Institute of Technology (BIT), Khulna in July 1986, and was later upgraded and renamed as KUET in September 2003.</t>
-  </si>
-  <si>
-    <t>What are the neighboring landmarks to KUET?</t>
-  </si>
-  <si>
-    <t>Nearby landmarks include Govt B. L. College to the south, Teacher's Training College and Technical Training Center to the west, and Jahanabad Cantonment to the north.</t>
-  </si>
-  <si>
-    <t>What is the syllabus for the KUET admission test?</t>
-  </si>
-  <si>
-    <t>The syllabus includes Mathematics, Physics, Chemistry, and English based on the H.S.C examination syllabus.</t>
-  </si>
-  <si>
-    <t>Who is the current head of the Department of CSE at KUET?</t>
-  </si>
-  <si>
-    <t>The current head of the Department of CSE at KUET is Dr. M. M. A. Hashem.</t>
-  </si>
-  <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>Applicants for the masters programs must have B.Sc. Eng. degree or equivalent in the relevant field from a recognized University/Institute with good academic records. Students who have higher research aptitude are welcome to the program. KUET invites application twice in a year (January Term and July Term). The respective departments arrange an interview at a suitable time to select candidates for this program. The selected candidates have to take admission by depositing prescribed amount of money to the bank. Full-time and part-time students are there in this program. For full time meritorious students financial help can be provided. A part-time student must have consent from his employer to pursue postgraduate studies.</t>
-  </si>
-  <si>
-    <t>The courses in which a student has obtained ‘D’ or a higher grade will be counted as credits earned by him/her. Any course in which a student has obtained ‘F’ grade will not be counted towards his/her earned credits calculation. A student who obtains an ‘F’ grade in any core course in any Term, he/she will have to repeat the course. If a student obtains an ‘F’ in an optional course he/she may choose to repeat the course or take a substitute course, if available. F grades will not be counted for GPA calculation but will stay permanently on the grade sheet and transcript. When a student will repeat a Backlog course in which he/she previously obtained ‘F’ grade, he/she will not be eligible to get a grade better than B+ (B plus) in such a course. A student obtaining D grade in a course, will be allowed to repeat the course for the purpose of grade improvement if CGPA of the student falls below 2.20 In such case he/she will be awarded the new grade thus he/she obtains or retains his/her previous grade if he/she fails. A student obtaining ‘C’ or a better grade in a course will not be allowed to repeat the course for the purpose of grade improvement if CGPA of the student falls below 2.20. Absence in Term final examination will result ‘F’ grade unless he/she has withdrawn from the Term as per Article 11.8.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khulna University of Engineering &amp; Technology (KUET) is one of the technological universities in Bangladesh. It was established as Khulna Engineering College in 1974, it was later converted to a degree awarding autonomous institution called Bangladesh Institute of Technology (BIT), Khulna in 1986. With a view to providing more opportunity and autonomy for the improvement in the quality of higher education and research in engineering and technology, the Institute was upgraded and renamed as Khulna University of Engineering &amp; Technology (KUET) in 2003. Its campus extends over an area of 101 acres. Tastefully laid out with beautiful plantation and with buildings of various nature and stature, clean and wide roads, the campus presents a spectacle of harmony in architecture and natural beauty. KUET combines traditional focus on excellent teaching and research with a desire to seek new ways of developing standardized education and intellectuals. Its mission is to flourish application of engineering knowledge through teaching, research and artistry. Its vision is to be perceived and acknowledged as the outstanding public university to the nation. KUET strives to be a community of scholars and a center for learning and developing knowledge-based capabilities which will promote academic achievements and research excellence. With such mission and vision, it is advancing to be a leading engineering university that educates students to identify and develop their individual talents for successful lives. </t>
-  </si>
-  <si>
-    <t>The campus is located at Fulbarigate, about 13 km north from the Khulna City near the Khulna-Dhaka highway. Govt. B. L. College is located 4 km away from this campus to the southern side of it. Teacher's Training College, Technical Training Center etc. are located at the western side and the Jahanabad Cantonment is located at the northern side of KUET campus. The Khulna-Dhaka highway is passing through the eastern side of the campus.</t>
-  </si>
-  <si>
-    <t>Applicants for the undergraduate program must pass the Higher Secondary Certificate (H.S.C.) or equivalent examination from any education board with science and must obtain a required minimum CGPA in Physics, Chemistry and Mathematics courses. The candidates who have completed a-level examination can also apply. The applicants have to go through a rigorous entry examination to be qualified for admission. The entry examination named as Admission Test consists of MCQ questions and short questions which covers current syllabus of Higher Secondary level Physics, Chemistry, Mathematics and English. The undergraduate admission is conducted once in each academic session.</t>
-  </si>
-  <si>
-    <t>The department of CSE provides an outstanding opportunity for students to get a quality education in Computer Science and Engineering. It started its academic activities from 26th September 1999 with 60 yearly intake which was increased to 120 from 2016. The department started postgraduate programs (M.Sc. and Ph.D.) in 2009 with 20 yearly intake which was increased to 40 from 2018. From the beginning, the department has been widely recognized for its excellent research and teaching capabilities. Students are enrolled in this department through a highly competitive entrance exam and only top rank students of the country get the change to admit. The current head of the Department of CSE at KUET is Dr. M. M. A. Hashem.</t>
-  </si>
-  <si>
-    <t>ground_truths</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,56 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -471,109 +420,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="90.5703125" style="3" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>question</t>
+        </is>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>answer</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>what is kuet</t>
+        </is>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>kuet is khulna university of engineering and technology</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>